--- a/patient_renege_df.xlsx
+++ b/patient_renege_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,4626 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>254</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7395.408642274973</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8764.555512746398</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1369.146870471424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>256</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7483.25649295417</v>
+      </c>
+      <c r="F3" t="n">
+        <v>8777.91114359383</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1294.65465063966</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>260</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7605.164806311602</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8833.119085899434</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1227.954279587832</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>299</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8763.971341573621</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10214.04253667083</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1450.071195097211</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>301</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8829.459975639291</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10219.33450025064</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1389.874524611349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>314</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9189.924582721853</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10544.4763841059</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1354.551801384046</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>321</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9372.156214526492</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10790.73448046354</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1418.578265937047</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>323</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9428.594726971665</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10790.73448046354</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1362.139753491874</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>326</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9473.255761168748</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10823.38191255024</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1350.126151381493</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>346</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10072.65935819803</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11466.50081020109</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1393.841452003058</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>369</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10827.53692952667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12282.61215886815</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1455.075229341484</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>373</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10950.9683145468</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12385.5822955031</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1434.613980956301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>375</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10999.24851148824</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12425.71351888524</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1426.465007397001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>388</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11419.33212191247</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12848.02164070105</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1428.689518788578</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>391</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11481.92991743393</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12905.3692998994</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1423.439382465476</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>392</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11489.99207520149</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12905.3692998994</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1415.377224697917</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>397</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11606.62434777689</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13126.40209136372</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1519.777743586837</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>399</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11663.01154060799</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13137.20556896863</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1474.194028360645</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>408</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E20" t="n">
+        <v>12017.83762617623</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13429.23258858721</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1411.394962410981</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>412</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12131.73359995004</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13517.60848099254</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1385.874881042493</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>413</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12184.45372093532</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13517.60848099254</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1333.154760057219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>416</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12311.39484499093</v>
+      </c>
+      <c r="F23" t="n">
+        <v>13591.23367665232</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1279.838831661395</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>417</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12341.4059164726</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13591.23367665232</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1249.827760179722</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>418</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12380.82966411742</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13626.7527598339</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1245.923095716482</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>425</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E26" t="n">
+        <v>12567.76223837094</v>
+      </c>
+      <c r="F26" t="n">
+        <v>13889.02513874704</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1321.262900376098</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>427</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E27" t="n">
+        <v>12656.74416159268</v>
+      </c>
+      <c r="F27" t="n">
+        <v>13889.02513874704</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1232.280977154365</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>433</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12846.69191585028</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14061.07043181941</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1214.378515969127</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>442</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13103.77407751013</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14333.44244442006</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1229.668366909931</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>445</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>13164.84538139516</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14425.42429196883</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1260.578910573671</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>448</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13248.47964763076</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14459.31686881055</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1210.837221179787</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>454</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13428.71743530944</v>
+      </c>
+      <c r="F32" t="n">
+        <v>14747.26114851347</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1318.543713204024</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>465</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13847.70664954907</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15111.87545945948</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1264.168809910403</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>480</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E34" t="n">
+        <v>14333.99987815169</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15538.15634823539</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1204.156470083703</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>483</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14421.30492840082</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15709.19415940091</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1287.889231000099</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>497</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14946.06108231154</v>
+      </c>
+      <c r="F36" t="n">
+        <v>16195.97913511471</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1249.918052803168</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>505</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E37" t="n">
+        <v>15184.64990675558</v>
+      </c>
+      <c r="F37" t="n">
+        <v>16413.56820637513</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1228.918299619549</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>512</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E38" t="n">
+        <v>15327.42835665788</v>
+      </c>
+      <c r="F38" t="n">
+        <v>16605.93523393256</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1278.50687727468</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>517</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E39" t="n">
+        <v>15554.5313874701</v>
+      </c>
+      <c r="F39" t="n">
+        <v>16852.42112091227</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1297.889733442171</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>518</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15600.848821738</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16852.42112091227</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1251.572299174271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>525</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E41" t="n">
+        <v>15804.58797530354</v>
+      </c>
+      <c r="F41" t="n">
+        <v>17022.81974861104</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1218.231773307503</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>527</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15836.9458915468</v>
+      </c>
+      <c r="F42" t="n">
+        <v>17182.61962996735</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1345.673738420552</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>559</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E43" t="n">
+        <v>16875.46421294945</v>
+      </c>
+      <c r="F43" t="n">
+        <v>18098.46875332943</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1223.004540379978</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>570</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E44" t="n">
+        <v>17239.17783499485</v>
+      </c>
+      <c r="F44" t="n">
+        <v>18453.57171230124</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1214.393877306396</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>576</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E45" t="n">
+        <v>17378.81470162203</v>
+      </c>
+      <c r="F45" t="n">
+        <v>18597.17909850637</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1218.364396884335</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>613</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E46" t="n">
+        <v>18548.29874451999</v>
+      </c>
+      <c r="F46" t="n">
+        <v>19880.25235503143</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1331.953610511446</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>617</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E47" t="n">
+        <v>18676.19460469044</v>
+      </c>
+      <c r="F47" t="n">
+        <v>19986.43149739077</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1310.236892700326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>623</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>18851.12306737311</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20187.10478260767</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1335.98171523456</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>625</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E49" t="n">
+        <v>18882.80480315865</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20197.02039423096</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1314.215591072316</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>630</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E50" t="n">
+        <v>19019.75155100157</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20265.97594285613</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1246.224391854565</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>632</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E51" t="n">
+        <v>19089.58624886896</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20349.45097214892</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1259.864723279959</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>663</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E52" t="n">
+        <v>20110.57619711045</v>
+      </c>
+      <c r="F52" t="n">
+        <v>21355.80288212972</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1245.226685019272</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>672</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E53" t="n">
+        <v>20404.08648654787</v>
+      </c>
+      <c r="F53" t="n">
+        <v>21612.3117997056</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1208.225313157731</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>675</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E54" t="n">
+        <v>20503.54618393286</v>
+      </c>
+      <c r="F54" t="n">
+        <v>21719.20778711732</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1215.661603184461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>689</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E55" t="n">
+        <v>20955.87680428989</v>
+      </c>
+      <c r="F55" t="n">
+        <v>22189.67006015351</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1233.793255863624</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>692</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E56" t="n">
+        <v>21044.64304475405</v>
+      </c>
+      <c r="F56" t="n">
+        <v>22258.69338352799</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1214.050338773937</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>694</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E57" t="n">
+        <v>21078.80370212303</v>
+      </c>
+      <c r="F57" t="n">
+        <v>22301.94242624745</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1223.138724124419</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>699</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E58" t="n">
+        <v>21195.33569583798</v>
+      </c>
+      <c r="F58" t="n">
+        <v>22457.7889383529</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1262.453242514915</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>702</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E59" t="n">
+        <v>21293.71097346149</v>
+      </c>
+      <c r="F59" t="n">
+        <v>22519.79664579813</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1226.085672336641</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>709</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E60" t="n">
+        <v>21523.73319880874</v>
+      </c>
+      <c r="F60" t="n">
+        <v>22779.11250667497</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1255.379307866224</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>722</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E61" t="n">
+        <v>21964.14315121975</v>
+      </c>
+      <c r="F61" t="n">
+        <v>23246.91407625447</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1282.770925034718</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>733</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E62" t="n">
+        <v>22157.92172112079</v>
+      </c>
+      <c r="F62" t="n">
+        <v>23547.50062859217</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1389.578907471376</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>737</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E63" t="n">
+        <v>22291.88446559157</v>
+      </c>
+      <c r="F63" t="n">
+        <v>23565.18773756775</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1273.30327197618</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>741</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E64" t="n">
+        <v>22437.94024514823</v>
+      </c>
+      <c r="F64" t="n">
+        <v>23673.32700806144</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1235.386762913204</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>746</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E65" t="n">
+        <v>22597.75219589975</v>
+      </c>
+      <c r="F65" t="n">
+        <v>23800.4152903852</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1202.663094485444</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>760</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E66" t="n">
+        <v>22937.77345902372</v>
+      </c>
+      <c r="F66" t="n">
+        <v>24153.71280683236</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1215.939347808646</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>763</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E67" t="n">
+        <v>23027.54446208144</v>
+      </c>
+      <c r="F67" t="n">
+        <v>24267.89238508717</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1240.347923005724</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>774</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E68" t="n">
+        <v>23327.94748615441</v>
+      </c>
+      <c r="F68" t="n">
+        <v>24535.19593683012</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1207.248450675714</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>778</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E69" t="n">
+        <v>23387.80985214308</v>
+      </c>
+      <c r="F69" t="n">
+        <v>24692.79692267906</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1304.987070535975</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>779</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E70" t="n">
+        <v>23402.87379453085</v>
+      </c>
+      <c r="F70" t="n">
+        <v>24692.79692267906</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1289.923128148203</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>789</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E71" t="n">
+        <v>23686.82821426405</v>
+      </c>
+      <c r="F71" t="n">
+        <v>24986.37594049376</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1299.547726229717</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>790</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E72" t="n">
+        <v>23688.66635343149</v>
+      </c>
+      <c r="F72" t="n">
+        <v>24986.37594049376</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1297.709587062272</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>791</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E73" t="n">
+        <v>23730.10392923472</v>
+      </c>
+      <c r="F73" t="n">
+        <v>25068.76238627208</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1338.658457037367</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>804</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E74" t="n">
+        <v>24112.93926166181</v>
+      </c>
+      <c r="F74" t="n">
+        <v>25390.33890039079</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1277.399638728977</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>824</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E75" t="n">
+        <v>24786.08843092291</v>
+      </c>
+      <c r="F75" t="n">
+        <v>26198.41119595027</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1412.322765027362</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>826</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E76" t="n">
+        <v>24845.6128057668</v>
+      </c>
+      <c r="F76" t="n">
+        <v>26198.41119595027</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1352.798390183474</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>827</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E77" t="n">
+        <v>24901.32473013942</v>
+      </c>
+      <c r="F77" t="n">
+        <v>26198.41119595027</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1297.086465810851</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>833</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E78" t="n">
+        <v>25101.35340905578</v>
+      </c>
+      <c r="F78" t="n">
+        <v>26330.42862685153</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1229.075217795755</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>835</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E79" t="n">
+        <v>25147.65559285944</v>
+      </c>
+      <c r="F79" t="n">
+        <v>26385.59912367019</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1237.943530810753</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>836</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E80" t="n">
+        <v>25159.37155715467</v>
+      </c>
+      <c r="F80" t="n">
+        <v>26425.68564903348</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1266.314091878809</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>844</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E81" t="n">
+        <v>25404.32584803225</v>
+      </c>
+      <c r="F81" t="n">
+        <v>26628.78389822675</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1224.458050194491</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>848</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E82" t="n">
+        <v>25492.89414279308</v>
+      </c>
+      <c r="F82" t="n">
+        <v>26757.72743884601</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1264.833296052926</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>860</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E83" t="n">
+        <v>25713.55099301081</v>
+      </c>
+      <c r="F83" t="n">
+        <v>27096.21141567123</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1382.660422660421</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>862</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E84" t="n">
+        <v>25769.41187229877</v>
+      </c>
+      <c r="F84" t="n">
+        <v>27096.21141567123</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1326.799543372465</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>865</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E85" t="n">
+        <v>25901.47684063752</v>
+      </c>
+      <c r="F85" t="n">
+        <v>27128.38551172194</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1226.90867108442</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>866</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E86" t="n">
+        <v>25917.73267277038</v>
+      </c>
+      <c r="F86" t="n">
+        <v>27128.38551172194</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1210.652838951559</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>878</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E87" t="n">
+        <v>26270.26015143582</v>
+      </c>
+      <c r="F87" t="n">
+        <v>27653.88693163161</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1383.626780195791</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>882</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E88" t="n">
+        <v>26377.58120181674</v>
+      </c>
+      <c r="F88" t="n">
+        <v>27755.85223788214</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1378.271036065398</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>883</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>5</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E89" t="n">
+        <v>26405.79460273936</v>
+      </c>
+      <c r="F89" t="n">
+        <v>27755.85223788214</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1350.057635142784</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>885</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E90" t="n">
+        <v>26471.25537806742</v>
+      </c>
+      <c r="F90" t="n">
+        <v>27755.85223788214</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1284.596859814719</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>888</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E91" t="n">
+        <v>26541.2038497015</v>
+      </c>
+      <c r="F91" t="n">
+        <v>27943.18430797536</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1401.980458273865</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>896</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E92" t="n">
+        <v>26836.28605629185</v>
+      </c>
+      <c r="F92" t="n">
+        <v>28163.234138006</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1326.948081714152</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>903</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E93" t="n">
+        <v>27076.72714165234</v>
+      </c>
+      <c r="F93" t="n">
+        <v>28343.45347685251</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1266.726335200172</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>906</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E94" t="n">
+        <v>27163.40108342123</v>
+      </c>
+      <c r="F94" t="n">
+        <v>28439.34475613596</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1275.943672714737</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>907</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E95" t="n">
+        <v>27200.86272764249</v>
+      </c>
+      <c r="F95" t="n">
+        <v>28467.89938037976</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1267.036652737264</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>915</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>5</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E96" t="n">
+        <v>27467.01474284678</v>
+      </c>
+      <c r="F96" t="n">
+        <v>28715.61722360645</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1248.60248075967</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>933</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E97" t="n">
+        <v>28003.56385220074</v>
+      </c>
+      <c r="F97" t="n">
+        <v>29308.34022203905</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1304.776369838313</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>941</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E98" t="n">
+        <v>28264.39157252021</v>
+      </c>
+      <c r="F98" t="n">
+        <v>29594.92902364726</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1330.537451127057</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>951</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>5</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E99" t="n">
+        <v>28578.26270096127</v>
+      </c>
+      <c r="F99" t="n">
+        <v>29869.98542250213</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1291.72272154086</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>956</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>5</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E100" t="n">
+        <v>28710.46842733478</v>
+      </c>
+      <c r="F100" t="n">
+        <v>30084.5145211232</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1374.046093788424</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>977</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E101" t="n">
+        <v>29345.52389584687</v>
+      </c>
+      <c r="F101" t="n">
+        <v>30721.92273769082</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1376.398841843951</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>979</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E102" t="n">
+        <v>29392.94078882813</v>
+      </c>
+      <c r="F102" t="n">
+        <v>30749.56718034756</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1356.626391519429</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>985</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E103" t="n">
+        <v>29622.80413266904</v>
+      </c>
+      <c r="F103" t="n">
+        <v>30882.96109741908</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1260.15696475004</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>989</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E104" t="n">
+        <v>29774.51538127613</v>
+      </c>
+      <c r="F104" t="n">
+        <v>30995.20949754747</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1220.694116271337</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E105" t="n">
+        <v>30359.91663475843</v>
+      </c>
+      <c r="F105" t="n">
+        <v>31599.11944216237</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1239.202807403944</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E106" t="n">
+        <v>30713.51326144496</v>
+      </c>
+      <c r="F106" t="n">
+        <v>31956.33742891231</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>1242.824167467345</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E107" t="n">
+        <v>30932.97442625681</v>
+      </c>
+      <c r="F107" t="n">
+        <v>32191.94508531365</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1258.970659056846</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E108" t="n">
+        <v>30953.57327303151</v>
+      </c>
+      <c r="F108" t="n">
+        <v>32191.94508531365</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1238.371812282148</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E109" t="n">
+        <v>31025.74351167529</v>
+      </c>
+      <c r="F109" t="n">
+        <v>32295.73625075945</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1269.992739084166</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E110" t="n">
+        <v>31085.33890937717</v>
+      </c>
+      <c r="F110" t="n">
+        <v>32295.73625075945</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1210.397341382282</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E111" t="n">
+        <v>31465.4739611911</v>
+      </c>
+      <c r="F111" t="n">
+        <v>32790.16337062031</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1324.689409429211</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E112" t="n">
+        <v>32318.95101391181</v>
+      </c>
+      <c r="F112" t="n">
+        <v>33874.72883728278</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1555.777823370961</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E113" t="n">
+        <v>33415.28284677575</v>
+      </c>
+      <c r="F113" t="n">
+        <v>34959.13372353608</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1543.850876760327</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E114" t="n">
+        <v>33593.83784159533</v>
+      </c>
+      <c r="F114" t="n">
+        <v>35127.81332441794</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1533.975482822607</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E115" t="n">
+        <v>34309.66316204472</v>
+      </c>
+      <c r="F115" t="n">
+        <v>35784.45512607048</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1474.791964025768</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E116" t="n">
+        <v>34338.52755613661</v>
+      </c>
+      <c r="F116" t="n">
+        <v>35784.45512607048</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1445.927569933876</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>5</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E117" t="n">
+        <v>34583.7519953806</v>
+      </c>
+      <c r="F117" t="n">
+        <v>35995.13121943746</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1411.379224056858</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E118" t="n">
+        <v>34664.76816548526</v>
+      </c>
+      <c r="F118" t="n">
+        <v>36053.40081036081</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1388.63264487555</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E119" t="n">
+        <v>34697.81108377055</v>
+      </c>
+      <c r="F119" t="n">
+        <v>36053.40081036081</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1355.589726590253</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>5</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E120" t="n">
+        <v>34740.10004114713</v>
+      </c>
+      <c r="F120" t="n">
+        <v>36064.11677409957</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1324.016732952434</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E121" t="n">
+        <v>34893.90182061693</v>
+      </c>
+      <c r="F121" t="n">
+        <v>36246.98839068443</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>1353.086570067491</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E122" t="n">
+        <v>35151.67754569111</v>
+      </c>
+      <c r="F122" t="n">
+        <v>36491.65223659926</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>1339.974690908151</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E123" t="n">
+        <v>35279.70973066048</v>
+      </c>
+      <c r="F123" t="n">
+        <v>36560.31627928963</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1280.606548629155</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E124" t="n">
+        <v>35325.13557833913</v>
+      </c>
+      <c r="F124" t="n">
+        <v>36686.35533319123</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1361.2197548521</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E125" t="n">
+        <v>35542.26528811893</v>
+      </c>
+      <c r="F125" t="n">
+        <v>36842.69218863075</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1300.426900511819</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E126" t="n">
+        <v>35595.25928101381</v>
+      </c>
+      <c r="F126" t="n">
+        <v>36860.57182385676</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1265.312542842956</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E127" t="n">
+        <v>35750.62520136076</v>
+      </c>
+      <c r="F127" t="n">
+        <v>36956.8105489709</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1206.185347610139</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E128" t="n">
+        <v>35999.74103060141</v>
+      </c>
+      <c r="F128" t="n">
+        <v>37251.2892133448</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1251.548182743398</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E129" t="n">
+        <v>36447.44833617955</v>
+      </c>
+      <c r="F129" t="n">
+        <v>37694.56862590722</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1247.120289727667</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E130" t="n">
+        <v>37500.07466153726</v>
+      </c>
+      <c r="F130" t="n">
+        <v>38741.42974478839</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1241.355083251132</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E131" t="n">
+        <v>37822.17982091768</v>
+      </c>
+      <c r="F131" t="n">
+        <v>39045.79755873411</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1223.617737816428</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E132" t="n">
+        <v>37990.98455786381</v>
+      </c>
+      <c r="F132" t="n">
+        <v>39283.2237331772</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1292.239175313385</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E133" t="n">
+        <v>38075.54031135098</v>
+      </c>
+      <c r="F133" t="n">
+        <v>39366.43192222762</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1290.891610876643</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E134" t="n">
+        <v>38111.59015579445</v>
+      </c>
+      <c r="F134" t="n">
+        <v>39377.11573641878</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1265.525580624329</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E135" t="n">
+        <v>38172.82079469149</v>
+      </c>
+      <c r="F135" t="n">
+        <v>39517.18091638893</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1344.360121697442</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E136" t="n">
+        <v>38272.34035664841</v>
+      </c>
+      <c r="F136" t="n">
+        <v>39517.18091638893</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1244.840559740522</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E137" t="n">
+        <v>38293.54068877437</v>
+      </c>
+      <c r="F137" t="n">
+        <v>39517.18091638893</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1223.64022761456</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E138" t="n">
+        <v>39147.74274787406</v>
+      </c>
+      <c r="F138" t="n">
+        <v>40371.27913149282</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1223.536383618761</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E139" t="n">
+        <v>39308.74446623698</v>
+      </c>
+      <c r="F139" t="n">
+        <v>40533.84449483784</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1225.100028600857</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1333</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E140" t="n">
+        <v>40173.97001643069</v>
+      </c>
+      <c r="F140" t="n">
+        <v>41526.53630885877</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1352.566292428084</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1334</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E141" t="n">
+        <v>40231.71488630104</v>
+      </c>
+      <c r="F141" t="n">
+        <v>41526.53630885877</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1294.821422557725</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E142" t="n">
+        <v>40379.53765770321</v>
+      </c>
+      <c r="F142" t="n">
+        <v>41747.84266694057</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>1368.305009237352</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1347</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E143" t="n">
+        <v>40663.88461420518</v>
+      </c>
+      <c r="F143" t="n">
+        <v>41963.72846993933</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1299.843855734158</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1363</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E144" t="n">
+        <v>41096.79843473902</v>
+      </c>
+      <c r="F144" t="n">
+        <v>42347.92951413188</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>1251.131079392864</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E145" t="n">
+        <v>41109.88615830857</v>
+      </c>
+      <c r="F145" t="n">
+        <v>42347.92951413188</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1238.043355823305</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>5</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E146" t="n">
+        <v>41423.07125897049</v>
+      </c>
+      <c r="F146" t="n">
+        <v>42717.65729687195</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1294.586037901463</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>1387</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E147" t="n">
+        <v>41840.91501354843</v>
+      </c>
+      <c r="F147" t="n">
+        <v>43088.63363608314</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>1247.71862253471</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E148" t="n">
+        <v>41909.25270091044</v>
+      </c>
+      <c r="F148" t="n">
+        <v>43158.73262811843</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1249.479927207991</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E149" t="n">
+        <v>42606.37763418147</v>
+      </c>
+      <c r="F149" t="n">
+        <v>43909.12608587716</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1302.748451695697</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>1413</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E150" t="n">
+        <v>42639.31104627319</v>
+      </c>
+      <c r="F150" t="n">
+        <v>43966.44994475807</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1327.138898484889</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>1419</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E151" t="n">
+        <v>42780.80896656378</v>
+      </c>
+      <c r="F151" t="n">
+        <v>44098.20748109164</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1317.398514527857</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>1420</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E152" t="n">
+        <v>42835.99226895534</v>
+      </c>
+      <c r="F152" t="n">
+        <v>44183.62576960182</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1347.633500646487</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>1426</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E153" t="n">
+        <v>42974.53995662382</v>
+      </c>
+      <c r="F153" t="n">
+        <v>44183.62576960182</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1209.085812978003</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>1428</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E154" t="n">
+        <v>43039.57750857124</v>
+      </c>
+      <c r="F154" t="n">
+        <v>44356.76786399918</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>1317.190355427942</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>1432</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>rushed</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1200</v>
+      </c>
+      <c r="E155" t="n">
+        <v>43168.53616445591</v>
+      </c>
+      <c r="F155" t="n">
+        <v>44411.26373578096</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Reneged</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1242.727571325049</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
